--- a/Event-Inventory-CommandCenter.xlsx
+++ b/Event-Inventory-CommandCenter.xlsx
@@ -1821,11 +1821,11 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -1844,11 +1844,11 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
@@ -1867,11 +1867,11 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -1890,11 +1890,11 @@
     </row>
     <row r="5">
       <c r="A5" s="12" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
@@ -1913,16 +1913,16 @@
     </row>
     <row r="6">
       <c r="A6" s="12" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D6" s="8" t="n"/>
@@ -1936,11 +1936,11 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="n">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -1959,16 +1959,16 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="n">
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D8" s="8" t="n"/>
@@ -1982,11 +1982,11 @@
     </row>
     <row r="9">
       <c r="A9" s="12" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -2005,11 +2005,11 @@
     </row>
     <row r="10">
       <c r="A10" s="12" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -2028,11 +2028,11 @@
     </row>
     <row r="11">
       <c r="A11" s="12" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
@@ -2051,11 +2051,11 @@
     </row>
     <row r="12">
       <c r="A12" s="12" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
@@ -2074,16 +2074,16 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="n">
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D13" s="8" t="n"/>
@@ -2097,11 +2097,11 @@
     </row>
     <row r="14">
       <c r="A14" s="12" t="n">
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C14" s="8" t="inlineStr">
@@ -2120,16 +2120,16 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="n">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C15" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D15" s="8" t="n"/>
@@ -2143,11 +2143,11 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C16" s="8" t="inlineStr">
@@ -2166,11 +2166,11 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C17" s="8" t="inlineStr">
@@ -2189,11 +2189,11 @@
     </row>
     <row r="18">
       <c r="A18" s="12" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C18" s="8" t="inlineStr">
@@ -2212,11 +2212,11 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C19" s="8" t="inlineStr">
@@ -2235,16 +2235,16 @@
     </row>
     <row r="20">
       <c r="A20" s="12" t="n">
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D20" s="8" t="n"/>
@@ -2258,11 +2258,11 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="n">
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C21" s="8" t="inlineStr">
@@ -2281,16 +2281,16 @@
     </row>
     <row r="22">
       <c r="A22" s="12" t="n">
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D22" s="8" t="n"/>
@@ -2304,11 +2304,11 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B23" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C23" s="8" t="inlineStr">
@@ -2327,11 +2327,11 @@
     </row>
     <row r="24">
       <c r="A24" s="12" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B24" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C24" s="8" t="inlineStr">
@@ -2350,11 +2350,11 @@
     </row>
     <row r="25">
       <c r="A25" s="12" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B25" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C25" s="8" t="inlineStr">
@@ -2373,11 +2373,11 @@
     </row>
     <row r="26">
       <c r="A26" s="12" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B26" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C26" s="8" t="inlineStr">
@@ -2396,16 +2396,16 @@
     </row>
     <row r="27">
       <c r="A27" s="12" t="n">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="B27" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C27" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D27" s="8" t="n"/>
@@ -2419,11 +2419,11 @@
     </row>
     <row r="28">
       <c r="A28" s="12" t="n">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C28" s="8" t="inlineStr">
@@ -2442,16 +2442,16 @@
     </row>
     <row r="29">
       <c r="A29" s="12" t="n">
-        <v>45921</v>
+        <v>45922</v>
       </c>
       <c r="B29" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D29" s="8" t="n"/>
@@ -2465,11 +2465,11 @@
     </row>
     <row r="30">
       <c r="A30" s="12" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B30" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C30" s="8" t="inlineStr">
@@ -2488,11 +2488,11 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B31" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C31" s="8" t="inlineStr">
@@ -2511,11 +2511,11 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="n">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B32" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C32" s="8" t="inlineStr">
@@ -2534,11 +2534,11 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B33" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C33" s="8" t="inlineStr">
@@ -2557,16 +2557,16 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="n">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="B34" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C34" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D34" s="8" t="n"/>
@@ -2580,11 +2580,11 @@
     </row>
     <row r="35">
       <c r="A35" s="12" t="n">
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="B35" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C35" s="8" t="inlineStr">
@@ -2603,16 +2603,16 @@
     </row>
     <row r="36">
       <c r="A36" s="12" t="n">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D36" s="8" t="n"/>
@@ -2626,11 +2626,11 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B37" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C37" s="8" t="inlineStr">
@@ -2649,11 +2649,11 @@
     </row>
     <row r="38">
       <c r="A38" s="12" t="n">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="B38" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C38" s="8" t="inlineStr">
@@ -2672,11 +2672,11 @@
     </row>
     <row r="39">
       <c r="A39" s="12" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="B39" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C39" s="8" t="inlineStr">
@@ -2695,11 +2695,11 @@
     </row>
     <row r="40">
       <c r="A40" s="12" t="n">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="B40" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C40" s="8" t="inlineStr">
@@ -2718,16 +2718,16 @@
     </row>
     <row r="41">
       <c r="A41" s="12" t="n">
-        <v>45933</v>
+        <v>45934</v>
       </c>
       <c r="B41" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C41" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D41" s="8" t="n"/>
@@ -2741,11 +2741,11 @@
     </row>
     <row r="42">
       <c r="A42" s="12" t="n">
-        <v>45934</v>
+        <v>45935</v>
       </c>
       <c r="B42" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C42" s="8" t="inlineStr">
@@ -2764,16 +2764,16 @@
     </row>
     <row r="43">
       <c r="A43" s="12" t="n">
-        <v>45935</v>
+        <v>45936</v>
       </c>
       <c r="B43" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C43" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D43" s="8" t="n"/>
@@ -2787,11 +2787,11 @@
     </row>
     <row r="44">
       <c r="A44" s="12" t="n">
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="B44" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C44" s="8" t="inlineStr">
@@ -2810,11 +2810,11 @@
     </row>
     <row r="45">
       <c r="A45" s="12" t="n">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="B45" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C45" s="8" t="inlineStr">
@@ -2833,11 +2833,11 @@
     </row>
     <row r="46">
       <c r="A46" s="12" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="B46" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C46" s="8" t="inlineStr">
@@ -2856,11 +2856,11 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="n">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="B47" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C47" s="8" t="inlineStr">
@@ -2879,16 +2879,16 @@
     </row>
     <row r="48">
       <c r="A48" s="12" t="n">
-        <v>45940</v>
+        <v>45941</v>
       </c>
       <c r="B48" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C48" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D48" s="8" t="n"/>
@@ -2902,11 +2902,11 @@
     </row>
     <row r="49">
       <c r="A49" s="12" t="n">
-        <v>45941</v>
+        <v>45942</v>
       </c>
       <c r="B49" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C49" s="8" t="inlineStr">
@@ -2925,16 +2925,16 @@
     </row>
     <row r="50">
       <c r="A50" s="12" t="n">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="B50" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C50" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D50" s="8" t="n"/>
@@ -2948,11 +2948,11 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B51" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C51" s="8" t="inlineStr">
@@ -2971,11 +2971,11 @@
     </row>
     <row r="52">
       <c r="A52" s="12" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B52" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C52" s="8" t="inlineStr">
@@ -2994,11 +2994,11 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="n">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B53" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C53" s="8" t="inlineStr">
@@ -3017,11 +3017,11 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B54" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C54" s="8" t="inlineStr">
@@ -3040,16 +3040,16 @@
     </row>
     <row r="55">
       <c r="A55" s="12" t="n">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B55" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C55" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D55" s="8" t="n"/>
@@ -3063,11 +3063,11 @@
     </row>
     <row r="56">
       <c r="A56" s="12" t="n">
-        <v>45948</v>
+        <v>45949</v>
       </c>
       <c r="B56" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C56" s="8" t="inlineStr">
@@ -3086,16 +3086,16 @@
     </row>
     <row r="57">
       <c r="A57" s="12" t="n">
-        <v>45949</v>
+        <v>45950</v>
       </c>
       <c r="B57" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C57" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D57" s="8" t="n"/>
@@ -3109,11 +3109,11 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="n">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B58" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C58" s="8" t="inlineStr">
@@ -3132,11 +3132,11 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B59" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C59" s="8" t="inlineStr">
@@ -3155,11 +3155,11 @@
     </row>
     <row r="60">
       <c r="A60" s="12" t="n">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="B60" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C60" s="8" t="inlineStr">
@@ -3178,11 +3178,11 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B61" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C61" s="8" t="inlineStr">
@@ -3201,16 +3201,16 @@
     </row>
     <row r="62">
       <c r="A62" s="12" t="n">
-        <v>45954</v>
+        <v>45955</v>
       </c>
       <c r="B62" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C62" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D62" s="8" t="n"/>
@@ -3224,11 +3224,11 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="n">
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="B63" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C63" s="8" t="inlineStr">
@@ -3247,16 +3247,16 @@
     </row>
     <row r="64">
       <c r="A64" s="12" t="n">
-        <v>45956</v>
+        <v>45957</v>
       </c>
       <c r="B64" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C64" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D64" s="8" t="n"/>
@@ -3270,11 +3270,11 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B65" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C65" s="8" t="inlineStr">
@@ -3293,11 +3293,11 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B66" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C66" s="8" t="inlineStr">
@@ -3316,11 +3316,11 @@
     </row>
     <row r="67">
       <c r="A67" s="12" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B67" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C67" s="8" t="inlineStr">
@@ -3339,11 +3339,11 @@
     </row>
     <row r="68">
       <c r="A68" s="12" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B68" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C68" s="8" t="inlineStr">
@@ -3362,16 +3362,16 @@
     </row>
     <row r="69">
       <c r="A69" s="12" t="n">
-        <v>45961</v>
+        <v>45962</v>
       </c>
       <c r="B69" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C69" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D69" s="8" t="n"/>
@@ -3385,11 +3385,11 @@
     </row>
     <row r="70">
       <c r="A70" s="12" t="n">
-        <v>45962</v>
+        <v>45963</v>
       </c>
       <c r="B70" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C70" s="8" t="inlineStr">
@@ -3408,16 +3408,16 @@
     </row>
     <row r="71">
       <c r="A71" s="12" t="n">
-        <v>45963</v>
+        <v>45964</v>
       </c>
       <c r="B71" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C71" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D71" s="8" t="n"/>
@@ -3431,11 +3431,11 @@
     </row>
     <row r="72">
       <c r="A72" s="12" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B72" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C72" s="8" t="inlineStr">
@@ -3454,11 +3454,11 @@
     </row>
     <row r="73">
       <c r="A73" s="12" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B73" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C73" s="8" t="inlineStr">
@@ -3477,11 +3477,11 @@
     </row>
     <row r="74">
       <c r="A74" s="12" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B74" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C74" s="8" t="inlineStr">
@@ -3500,11 +3500,11 @@
     </row>
     <row r="75">
       <c r="A75" s="12" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B75" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C75" s="8" t="inlineStr">
@@ -3523,16 +3523,16 @@
     </row>
     <row r="76">
       <c r="A76" s="12" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="B76" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C76" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D76" s="8" t="n"/>
@@ -3546,11 +3546,11 @@
     </row>
     <row r="77">
       <c r="A77" s="12" t="n">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B77" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C77" s="8" t="inlineStr">
@@ -3569,16 +3569,16 @@
     </row>
     <row r="78">
       <c r="A78" s="12" t="n">
-        <v>45970</v>
+        <v>45971</v>
       </c>
       <c r="B78" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C78" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D78" s="8" t="n"/>
@@ -3592,11 +3592,11 @@
     </row>
     <row r="79">
       <c r="A79" s="12" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B79" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C79" s="8" t="inlineStr">
@@ -3615,11 +3615,11 @@
     </row>
     <row r="80">
       <c r="A80" s="12" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B80" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C80" s="8" t="inlineStr">
@@ -3638,11 +3638,11 @@
     </row>
     <row r="81">
       <c r="A81" s="12" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B81" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C81" s="8" t="inlineStr">
@@ -3661,11 +3661,11 @@
     </row>
     <row r="82">
       <c r="A82" s="12" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B82" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C82" s="8" t="inlineStr">
@@ -3684,16 +3684,16 @@
     </row>
     <row r="83">
       <c r="A83" s="12" t="n">
-        <v>45975</v>
+        <v>45976</v>
       </c>
       <c r="B83" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C83" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D83" s="8" t="n"/>
@@ -3707,11 +3707,11 @@
     </row>
     <row r="84">
       <c r="A84" s="12" t="n">
-        <v>45976</v>
+        <v>45977</v>
       </c>
       <c r="B84" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C84" s="8" t="inlineStr">
@@ -3730,16 +3730,16 @@
     </row>
     <row r="85">
       <c r="A85" s="12" t="n">
-        <v>45977</v>
+        <v>45978</v>
       </c>
       <c r="B85" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C85" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D85" s="8" t="n"/>
@@ -3753,11 +3753,11 @@
     </row>
     <row r="86">
       <c r="A86" s="12" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B86" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C86" s="8" t="inlineStr">
@@ -3776,11 +3776,11 @@
     </row>
     <row r="87">
       <c r="A87" s="12" t="n">
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="B87" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C87" s="8" t="inlineStr">
@@ -3799,11 +3799,11 @@
     </row>
     <row r="88">
       <c r="A88" s="12" t="n">
-        <v>45980</v>
+        <v>45981</v>
       </c>
       <c r="B88" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C88" s="8" t="inlineStr">
@@ -3822,11 +3822,11 @@
     </row>
     <row r="89">
       <c r="A89" s="12" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B89" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C89" s="8" t="inlineStr">
@@ -3845,16 +3845,16 @@
     </row>
     <row r="90">
       <c r="A90" s="12" t="n">
-        <v>45982</v>
+        <v>45983</v>
       </c>
       <c r="B90" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C90" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D90" s="8" t="n"/>
@@ -3868,11 +3868,11 @@
     </row>
     <row r="91">
       <c r="A91" s="12" t="n">
-        <v>45983</v>
+        <v>45984</v>
       </c>
       <c r="B91" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C91" s="8" t="inlineStr">
@@ -3891,16 +3891,16 @@
     </row>
     <row r="92">
       <c r="A92" s="12" t="n">
-        <v>45984</v>
+        <v>45985</v>
       </c>
       <c r="B92" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C92" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D92" s="8" t="n"/>
@@ -3914,11 +3914,11 @@
     </row>
     <row r="93">
       <c r="A93" s="12" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
       <c r="B93" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C93" s="8" t="inlineStr">
@@ -3937,11 +3937,11 @@
     </row>
     <row r="94">
       <c r="A94" s="12" t="n">
-        <v>45986</v>
+        <v>45987</v>
       </c>
       <c r="B94" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C94" s="8" t="inlineStr">
@@ -3960,11 +3960,11 @@
     </row>
     <row r="95">
       <c r="A95" s="12" t="n">
-        <v>45987</v>
+        <v>45988</v>
       </c>
       <c r="B95" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C95" s="8" t="inlineStr">
@@ -3983,11 +3983,11 @@
     </row>
     <row r="96">
       <c r="A96" s="12" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B96" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C96" s="8" t="inlineStr">
@@ -4006,16 +4006,16 @@
     </row>
     <row r="97">
       <c r="A97" s="12" t="n">
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="B97" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C97" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D97" s="8" t="n"/>
@@ -4029,11 +4029,11 @@
     </row>
     <row r="98">
       <c r="A98" s="12" t="n">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="B98" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C98" s="8" t="inlineStr">
@@ -4052,16 +4052,16 @@
     </row>
     <row r="99">
       <c r="A99" s="12" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B99" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C99" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D99" s="8" t="n"/>
@@ -4075,11 +4075,11 @@
     </row>
     <row r="100">
       <c r="A100" s="12" t="n">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="B100" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C100" s="8" t="inlineStr">
@@ -4098,11 +4098,11 @@
     </row>
     <row r="101">
       <c r="A101" s="12" t="n">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="B101" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C101" s="8" t="inlineStr">
@@ -4121,11 +4121,11 @@
     </row>
     <row r="102">
       <c r="A102" s="12" t="n">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="B102" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C102" s="8" t="inlineStr">
@@ -4144,11 +4144,11 @@
     </row>
     <row r="103">
       <c r="A103" s="12" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="B103" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C103" s="8" t="inlineStr">
@@ -4167,16 +4167,16 @@
     </row>
     <row r="104">
       <c r="A104" s="12" t="n">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="B104" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C104" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D104" s="8" t="n"/>
@@ -4190,11 +4190,11 @@
     </row>
     <row r="105">
       <c r="A105" s="12" t="n">
-        <v>45997</v>
+        <v>45998</v>
       </c>
       <c r="B105" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C105" s="8" t="inlineStr">
@@ -4213,16 +4213,16 @@
     </row>
     <row r="106">
       <c r="A106" s="12" t="n">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="B106" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C106" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D106" s="8" t="n"/>
@@ -4236,11 +4236,11 @@
     </row>
     <row r="107">
       <c r="A107" s="12" t="n">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="B107" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C107" s="8" t="inlineStr">
@@ -4259,11 +4259,11 @@
     </row>
     <row r="108">
       <c r="A108" s="12" t="n">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="B108" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C108" s="8" t="inlineStr">
@@ -4282,11 +4282,11 @@
     </row>
     <row r="109">
       <c r="A109" s="12" t="n">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="B109" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C109" s="8" t="inlineStr">
@@ -4305,11 +4305,11 @@
     </row>
     <row r="110">
       <c r="A110" s="12" t="n">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="B110" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C110" s="8" t="inlineStr">
@@ -4328,16 +4328,16 @@
     </row>
     <row r="111">
       <c r="A111" s="12" t="n">
-        <v>46003</v>
+        <v>46004</v>
       </c>
       <c r="B111" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C111" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D111" s="8" t="n"/>
@@ -4351,11 +4351,11 @@
     </row>
     <row r="112">
       <c r="A112" s="12" t="n">
-        <v>46004</v>
+        <v>46005</v>
       </c>
       <c r="B112" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C112" s="8" t="inlineStr">
@@ -4374,16 +4374,16 @@
     </row>
     <row r="113">
       <c r="A113" s="12" t="n">
-        <v>46005</v>
+        <v>46006</v>
       </c>
       <c r="B113" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C113" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D113" s="8" t="n"/>
@@ -4397,11 +4397,11 @@
     </row>
     <row r="114">
       <c r="A114" s="12" t="n">
-        <v>46006</v>
+        <v>46007</v>
       </c>
       <c r="B114" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C114" s="8" t="inlineStr">
@@ -4420,11 +4420,11 @@
     </row>
     <row r="115">
       <c r="A115" s="12" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B115" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C115" s="8" t="inlineStr">
@@ -4443,11 +4443,11 @@
     </row>
     <row r="116">
       <c r="A116" s="12" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B116" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C116" s="8" t="inlineStr">
@@ -4466,11 +4466,11 @@
     </row>
     <row r="117">
       <c r="A117" s="12" t="n">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="B117" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C117" s="8" t="inlineStr">
@@ -4489,16 +4489,16 @@
     </row>
     <row r="118">
       <c r="A118" s="12" t="n">
-        <v>46010</v>
+        <v>46011</v>
       </c>
       <c r="B118" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C118" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D118" s="8" t="n"/>
@@ -4512,11 +4512,11 @@
     </row>
     <row r="119">
       <c r="A119" s="12" t="n">
-        <v>46011</v>
+        <v>46012</v>
       </c>
       <c r="B119" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C119" s="8" t="inlineStr">
@@ -4535,16 +4535,16 @@
     </row>
     <row r="120">
       <c r="A120" s="12" t="n">
-        <v>46012</v>
+        <v>46013</v>
       </c>
       <c r="B120" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C120" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D120" s="8" t="n"/>
@@ -4558,11 +4558,11 @@
     </row>
     <row r="121">
       <c r="A121" s="12" t="n">
-        <v>46013</v>
+        <v>46014</v>
       </c>
       <c r="B121" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C121" s="8" t="inlineStr">
@@ -4581,11 +4581,11 @@
     </row>
     <row r="122">
       <c r="A122" s="12" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B122" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C122" s="8" t="inlineStr">
@@ -4604,11 +4604,11 @@
     </row>
     <row r="123">
       <c r="A123" s="12" t="n">
-        <v>46015</v>
+        <v>46016</v>
       </c>
       <c r="B123" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C123" s="8" t="inlineStr">
@@ -4627,11 +4627,11 @@
     </row>
     <row r="124">
       <c r="A124" s="12" t="n">
-        <v>46016</v>
+        <v>46017</v>
       </c>
       <c r="B124" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C124" s="8" t="inlineStr">
@@ -4650,16 +4650,16 @@
     </row>
     <row r="125">
       <c r="A125" s="12" t="n">
-        <v>46017</v>
+        <v>46018</v>
       </c>
       <c r="B125" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C125" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D125" s="8" t="n"/>
@@ -4673,11 +4673,11 @@
     </row>
     <row r="126">
       <c r="A126" s="12" t="n">
-        <v>46018</v>
+        <v>46019</v>
       </c>
       <c r="B126" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C126" s="8" t="inlineStr">
@@ -4696,16 +4696,16 @@
     </row>
     <row r="127">
       <c r="A127" s="12" t="n">
-        <v>46019</v>
+        <v>46020</v>
       </c>
       <c r="B127" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C127" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D127" s="8" t="n"/>
@@ -4719,11 +4719,11 @@
     </row>
     <row r="128">
       <c r="A128" s="12" t="n">
-        <v>46020</v>
+        <v>46021</v>
       </c>
       <c r="B128" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C128" s="8" t="inlineStr">
@@ -4742,11 +4742,11 @@
     </row>
     <row r="129">
       <c r="A129" s="12" t="n">
-        <v>46021</v>
+        <v>46022</v>
       </c>
       <c r="B129" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C129" s="8" t="inlineStr">
@@ -4765,11 +4765,11 @@
     </row>
     <row r="130">
       <c r="A130" s="12" t="n">
-        <v>46022</v>
+        <v>46023</v>
       </c>
       <c r="B130" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C130" s="8" t="inlineStr">
@@ -4788,11 +4788,11 @@
     </row>
     <row r="131">
       <c r="A131" s="12" t="n">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B131" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C131" s="8" t="inlineStr">
@@ -4811,16 +4811,16 @@
     </row>
     <row r="132">
       <c r="A132" s="12" t="n">
-        <v>46024</v>
+        <v>46025</v>
       </c>
       <c r="B132" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C132" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D132" s="8" t="n"/>
@@ -4834,11 +4834,11 @@
     </row>
     <row r="133">
       <c r="A133" s="12" t="n">
-        <v>46025</v>
+        <v>46026</v>
       </c>
       <c r="B133" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C133" s="8" t="inlineStr">
@@ -4857,16 +4857,16 @@
     </row>
     <row r="134">
       <c r="A134" s="12" t="n">
-        <v>46026</v>
+        <v>46027</v>
       </c>
       <c r="B134" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C134" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D134" s="8" t="n"/>
@@ -4880,11 +4880,11 @@
     </row>
     <row r="135">
       <c r="A135" s="12" t="n">
-        <v>46027</v>
+        <v>46028</v>
       </c>
       <c r="B135" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C135" s="8" t="inlineStr">
@@ -4903,11 +4903,11 @@
     </row>
     <row r="136">
       <c r="A136" s="12" t="n">
-        <v>46028</v>
+        <v>46029</v>
       </c>
       <c r="B136" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C136" s="8" t="inlineStr">
@@ -4926,11 +4926,11 @@
     </row>
     <row r="137">
       <c r="A137" s="12" t="n">
-        <v>46029</v>
+        <v>46030</v>
       </c>
       <c r="B137" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C137" s="8" t="inlineStr">
@@ -4949,11 +4949,11 @@
     </row>
     <row r="138">
       <c r="A138" s="12" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="B138" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C138" s="8" t="inlineStr">
@@ -4972,16 +4972,16 @@
     </row>
     <row r="139">
       <c r="A139" s="12" t="n">
-        <v>46031</v>
+        <v>46032</v>
       </c>
       <c r="B139" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C139" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D139" s="8" t="n"/>
@@ -4995,11 +4995,11 @@
     </row>
     <row r="140">
       <c r="A140" s="12" t="n">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="B140" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C140" s="8" t="inlineStr">
@@ -5018,16 +5018,16 @@
     </row>
     <row r="141">
       <c r="A141" s="12" t="n">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="B141" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C141" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D141" s="8" t="n"/>
@@ -5041,11 +5041,11 @@
     </row>
     <row r="142">
       <c r="A142" s="12" t="n">
-        <v>46034</v>
+        <v>46035</v>
       </c>
       <c r="B142" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C142" s="8" t="inlineStr">
@@ -5064,11 +5064,11 @@
     </row>
     <row r="143">
       <c r="A143" s="12" t="n">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="B143" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C143" s="8" t="inlineStr">
@@ -5087,11 +5087,11 @@
     </row>
     <row r="144">
       <c r="A144" s="12" t="n">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="B144" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C144" s="8" t="inlineStr">
@@ -5110,11 +5110,11 @@
     </row>
     <row r="145">
       <c r="A145" s="12" t="n">
-        <v>46037</v>
+        <v>46038</v>
       </c>
       <c r="B145" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C145" s="8" t="inlineStr">
@@ -5133,16 +5133,16 @@
     </row>
     <row r="146">
       <c r="A146" s="12" t="n">
-        <v>46038</v>
+        <v>46039</v>
       </c>
       <c r="B146" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C146" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D146" s="8" t="n"/>
@@ -5156,11 +5156,11 @@
     </row>
     <row r="147">
       <c r="A147" s="12" t="n">
-        <v>46039</v>
+        <v>46040</v>
       </c>
       <c r="B147" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C147" s="8" t="inlineStr">
@@ -5179,16 +5179,16 @@
     </row>
     <row r="148">
       <c r="A148" s="12" t="n">
-        <v>46040</v>
+        <v>46041</v>
       </c>
       <c r="B148" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C148" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D148" s="8" t="n"/>
@@ -5202,11 +5202,11 @@
     </row>
     <row r="149">
       <c r="A149" s="12" t="n">
-        <v>46041</v>
+        <v>46042</v>
       </c>
       <c r="B149" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C149" s="8" t="inlineStr">
@@ -5225,11 +5225,11 @@
     </row>
     <row r="150">
       <c r="A150" s="12" t="n">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="B150" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C150" s="8" t="inlineStr">
@@ -5248,11 +5248,11 @@
     </row>
     <row r="151">
       <c r="A151" s="12" t="n">
-        <v>46043</v>
+        <v>46044</v>
       </c>
       <c r="B151" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C151" s="8" t="inlineStr">
@@ -5271,11 +5271,11 @@
     </row>
     <row r="152">
       <c r="A152" s="12" t="n">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="B152" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C152" s="8" t="inlineStr">
@@ -5294,16 +5294,16 @@
     </row>
     <row r="153">
       <c r="A153" s="12" t="n">
-        <v>46045</v>
+        <v>46046</v>
       </c>
       <c r="B153" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C153" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D153" s="8" t="n"/>
@@ -5317,11 +5317,11 @@
     </row>
     <row r="154">
       <c r="A154" s="12" t="n">
-        <v>46046</v>
+        <v>46047</v>
       </c>
       <c r="B154" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C154" s="8" t="inlineStr">
@@ -5340,16 +5340,16 @@
     </row>
     <row r="155">
       <c r="A155" s="12" t="n">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="B155" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C155" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D155" s="8" t="n"/>
@@ -5363,11 +5363,11 @@
     </row>
     <row r="156">
       <c r="A156" s="12" t="n">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="B156" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C156" s="8" t="inlineStr">
@@ -5386,11 +5386,11 @@
     </row>
     <row r="157">
       <c r="A157" s="12" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B157" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C157" s="8" t="inlineStr">
@@ -5409,11 +5409,11 @@
     </row>
     <row r="158">
       <c r="A158" s="12" t="n">
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B158" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C158" s="8" t="inlineStr">
@@ -5432,11 +5432,11 @@
     </row>
     <row r="159">
       <c r="A159" s="12" t="n">
-        <v>46051</v>
+        <v>46052</v>
       </c>
       <c r="B159" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C159" s="8" t="inlineStr">
@@ -5455,16 +5455,16 @@
     </row>
     <row r="160">
       <c r="A160" s="12" t="n">
-        <v>46052</v>
+        <v>46053</v>
       </c>
       <c r="B160" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C160" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D160" s="8" t="n"/>
@@ -5478,11 +5478,11 @@
     </row>
     <row r="161">
       <c r="A161" s="12" t="n">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B161" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C161" s="8" t="inlineStr">
@@ -5501,16 +5501,16 @@
     </row>
     <row r="162">
       <c r="A162" s="12" t="n">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="B162" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C162" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D162" s="8" t="n"/>
@@ -5524,11 +5524,11 @@
     </row>
     <row r="163">
       <c r="A163" s="12" t="n">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B163" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C163" s="8" t="inlineStr">
@@ -5547,11 +5547,11 @@
     </row>
     <row r="164">
       <c r="A164" s="12" t="n">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B164" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C164" s="8" t="inlineStr">
@@ -5570,11 +5570,11 @@
     </row>
     <row r="165">
       <c r="A165" s="12" t="n">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B165" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C165" s="8" t="inlineStr">
@@ -5593,11 +5593,11 @@
     </row>
     <row r="166">
       <c r="A166" s="12" t="n">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B166" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C166" s="8" t="inlineStr">
@@ -5616,16 +5616,16 @@
     </row>
     <row r="167">
       <c r="A167" s="12" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="B167" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C167" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D167" s="8" t="n"/>
@@ -5639,11 +5639,11 @@
     </row>
     <row r="168">
       <c r="A168" s="12" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="B168" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C168" s="8" t="inlineStr">
@@ -5662,16 +5662,16 @@
     </row>
     <row r="169">
       <c r="A169" s="12" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="B169" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C169" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D169" s="8" t="n"/>
@@ -5685,11 +5685,11 @@
     </row>
     <row r="170">
       <c r="A170" s="12" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B170" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C170" s="8" t="inlineStr">
@@ -5708,11 +5708,11 @@
     </row>
     <row r="171">
       <c r="A171" s="12" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="B171" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C171" s="8" t="inlineStr">
@@ -5731,11 +5731,11 @@
     </row>
     <row r="172">
       <c r="A172" s="12" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="B172" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C172" s="8" t="inlineStr">
@@ -5754,11 +5754,11 @@
     </row>
     <row r="173">
       <c r="A173" s="12" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="B173" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C173" s="8" t="inlineStr">
@@ -5777,16 +5777,16 @@
     </row>
     <row r="174">
       <c r="A174" s="12" t="n">
-        <v>46066</v>
+        <v>46067</v>
       </c>
       <c r="B174" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C174" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D174" s="8" t="n"/>
@@ -5800,11 +5800,11 @@
     </row>
     <row r="175">
       <c r="A175" s="12" t="n">
-        <v>46067</v>
+        <v>46068</v>
       </c>
       <c r="B175" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C175" s="8" t="inlineStr">
@@ -5823,16 +5823,16 @@
     </row>
     <row r="176">
       <c r="A176" s="12" t="n">
-        <v>46068</v>
+        <v>46069</v>
       </c>
       <c r="B176" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C176" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D176" s="8" t="n"/>
@@ -5846,11 +5846,11 @@
     </row>
     <row r="177">
       <c r="A177" s="12" t="n">
-        <v>46069</v>
+        <v>46070</v>
       </c>
       <c r="B177" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C177" s="8" t="inlineStr">
@@ -5869,11 +5869,11 @@
     </row>
     <row r="178">
       <c r="A178" s="12" t="n">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="B178" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C178" s="8" t="inlineStr">
@@ -5892,11 +5892,11 @@
     </row>
     <row r="179">
       <c r="A179" s="12" t="n">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="B179" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C179" s="8" t="inlineStr">
@@ -5915,11 +5915,11 @@
     </row>
     <row r="180">
       <c r="A180" s="12" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="B180" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C180" s="8" t="inlineStr">
@@ -5938,16 +5938,16 @@
     </row>
     <row r="181">
       <c r="A181" s="12" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="B181" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C181" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D181" s="8" t="n"/>
@@ -5961,11 +5961,11 @@
     </row>
     <row r="182">
       <c r="A182" s="12" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="B182" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C182" s="8" t="inlineStr">
@@ -5984,16 +5984,16 @@
     </row>
     <row r="183">
       <c r="A183" s="12" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="B183" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C183" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D183" s="8" t="n"/>
@@ -6007,11 +6007,11 @@
     </row>
     <row r="184">
       <c r="A184" s="12" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B184" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C184" s="8" t="inlineStr">
@@ -6030,11 +6030,11 @@
     </row>
     <row r="185">
       <c r="A185" s="12" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="B185" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C185" s="8" t="inlineStr">
@@ -6053,11 +6053,11 @@
     </row>
     <row r="186">
       <c r="A186" s="12" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="B186" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C186" s="8" t="inlineStr">
@@ -6076,11 +6076,11 @@
     </row>
     <row r="187">
       <c r="A187" s="12" t="n">
-        <v>46079</v>
+        <v>46080</v>
       </c>
       <c r="B187" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C187" s="8" t="inlineStr">
@@ -6099,16 +6099,16 @@
     </row>
     <row r="188">
       <c r="A188" s="12" t="n">
-        <v>46080</v>
+        <v>46081</v>
       </c>
       <c r="B188" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C188" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D188" s="8" t="n"/>
@@ -6122,11 +6122,11 @@
     </row>
     <row r="189">
       <c r="A189" s="12" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="B189" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C189" s="8" t="inlineStr">
@@ -6145,16 +6145,16 @@
     </row>
     <row r="190">
       <c r="A190" s="12" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="B190" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C190" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D190" s="8" t="n"/>
@@ -6168,11 +6168,11 @@
     </row>
     <row r="191">
       <c r="A191" s="12" t="n">
-        <v>46083</v>
+        <v>46084</v>
       </c>
       <c r="B191" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C191" s="8" t="inlineStr">
@@ -6191,11 +6191,11 @@
     </row>
     <row r="192">
       <c r="A192" s="12" t="n">
-        <v>46084</v>
+        <v>46085</v>
       </c>
       <c r="B192" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C192" s="8" t="inlineStr">
@@ -6214,11 +6214,11 @@
     </row>
     <row r="193">
       <c r="A193" s="12" t="n">
-        <v>46085</v>
+        <v>46086</v>
       </c>
       <c r="B193" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C193" s="8" t="inlineStr">
@@ -6237,11 +6237,11 @@
     </row>
     <row r="194">
       <c r="A194" s="12" t="n">
-        <v>46086</v>
+        <v>46087</v>
       </c>
       <c r="B194" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C194" s="8" t="inlineStr">
@@ -6260,16 +6260,16 @@
     </row>
     <row r="195">
       <c r="A195" s="12" t="n">
-        <v>46087</v>
+        <v>46088</v>
       </c>
       <c r="B195" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C195" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D195" s="8" t="n"/>
@@ -6283,11 +6283,11 @@
     </row>
     <row r="196">
       <c r="A196" s="12" t="n">
-        <v>46088</v>
+        <v>46089</v>
       </c>
       <c r="B196" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C196" s="8" t="inlineStr">
@@ -6306,16 +6306,16 @@
     </row>
     <row r="197">
       <c r="A197" s="12" t="n">
-        <v>46089</v>
+        <v>46090</v>
       </c>
       <c r="B197" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C197" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D197" s="8" t="n"/>
@@ -6329,11 +6329,11 @@
     </row>
     <row r="198">
       <c r="A198" s="12" t="n">
-        <v>46090</v>
+        <v>46091</v>
       </c>
       <c r="B198" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C198" s="8" t="inlineStr">
@@ -6352,11 +6352,11 @@
     </row>
     <row r="199">
       <c r="A199" s="12" t="n">
-        <v>46091</v>
+        <v>46092</v>
       </c>
       <c r="B199" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C199" s="8" t="inlineStr">
@@ -6375,11 +6375,11 @@
     </row>
     <row r="200">
       <c r="A200" s="12" t="n">
-        <v>46092</v>
+        <v>46093</v>
       </c>
       <c r="B200" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C200" s="8" t="inlineStr">
@@ -6398,11 +6398,11 @@
     </row>
     <row r="201">
       <c r="A201" s="12" t="n">
-        <v>46093</v>
+        <v>46094</v>
       </c>
       <c r="B201" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C201" s="8" t="inlineStr">
@@ -6421,16 +6421,16 @@
     </row>
     <row r="202">
       <c r="A202" s="12" t="n">
-        <v>46094</v>
+        <v>46095</v>
       </c>
       <c r="B202" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C202" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D202" s="8" t="n"/>
@@ -6444,11 +6444,11 @@
     </row>
     <row r="203">
       <c r="A203" s="12" t="n">
-        <v>46095</v>
+        <v>46096</v>
       </c>
       <c r="B203" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C203" s="8" t="inlineStr">
@@ -6467,16 +6467,16 @@
     </row>
     <row r="204">
       <c r="A204" s="12" t="n">
-        <v>46096</v>
+        <v>46097</v>
       </c>
       <c r="B204" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C204" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D204" s="8" t="n"/>
@@ -6490,11 +6490,11 @@
     </row>
     <row r="205">
       <c r="A205" s="12" t="n">
-        <v>46097</v>
+        <v>46098</v>
       </c>
       <c r="B205" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C205" s="8" t="inlineStr">
@@ -6513,11 +6513,11 @@
     </row>
     <row r="206">
       <c r="A206" s="12" t="n">
-        <v>46098</v>
+        <v>46099</v>
       </c>
       <c r="B206" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C206" s="8" t="inlineStr">
@@ -6536,11 +6536,11 @@
     </row>
     <row r="207">
       <c r="A207" s="12" t="n">
-        <v>46099</v>
+        <v>46100</v>
       </c>
       <c r="B207" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C207" s="8" t="inlineStr">
@@ -6559,11 +6559,11 @@
     </row>
     <row r="208">
       <c r="A208" s="12" t="n">
-        <v>46100</v>
+        <v>46101</v>
       </c>
       <c r="B208" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C208" s="8" t="inlineStr">
@@ -6582,16 +6582,16 @@
     </row>
     <row r="209">
       <c r="A209" s="12" t="n">
-        <v>46101</v>
+        <v>46102</v>
       </c>
       <c r="B209" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C209" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D209" s="8" t="n"/>
@@ -6605,11 +6605,11 @@
     </row>
     <row r="210">
       <c r="A210" s="12" t="n">
-        <v>46102</v>
+        <v>46103</v>
       </c>
       <c r="B210" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C210" s="8" t="inlineStr">
@@ -6628,16 +6628,16 @@
     </row>
     <row r="211">
       <c r="A211" s="12" t="n">
-        <v>46103</v>
+        <v>46104</v>
       </c>
       <c r="B211" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C211" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D211" s="8" t="n"/>
@@ -6651,11 +6651,11 @@
     </row>
     <row r="212">
       <c r="A212" s="12" t="n">
-        <v>46104</v>
+        <v>46105</v>
       </c>
       <c r="B212" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C212" s="8" t="inlineStr">
@@ -6674,11 +6674,11 @@
     </row>
     <row r="213">
       <c r="A213" s="12" t="n">
-        <v>46105</v>
+        <v>46106</v>
       </c>
       <c r="B213" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C213" s="8" t="inlineStr">
@@ -6697,11 +6697,11 @@
     </row>
     <row r="214">
       <c r="A214" s="12" t="n">
-        <v>46106</v>
+        <v>46107</v>
       </c>
       <c r="B214" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C214" s="8" t="inlineStr">
@@ -6720,11 +6720,11 @@
     </row>
     <row r="215">
       <c r="A215" s="12" t="n">
-        <v>46107</v>
+        <v>46108</v>
       </c>
       <c r="B215" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C215" s="8" t="inlineStr">
@@ -6743,16 +6743,16 @@
     </row>
     <row r="216">
       <c r="A216" s="12" t="n">
-        <v>46108</v>
+        <v>46109</v>
       </c>
       <c r="B216" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C216" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D216" s="8" t="n"/>
@@ -6766,11 +6766,11 @@
     </row>
     <row r="217">
       <c r="A217" s="12" t="n">
-        <v>46109</v>
+        <v>46110</v>
       </c>
       <c r="B217" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C217" s="8" t="inlineStr">
@@ -6789,16 +6789,16 @@
     </row>
     <row r="218">
       <c r="A218" s="12" t="n">
-        <v>46110</v>
+        <v>46111</v>
       </c>
       <c r="B218" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C218" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D218" s="8" t="n"/>
@@ -6812,11 +6812,11 @@
     </row>
     <row r="219">
       <c r="A219" s="12" t="n">
-        <v>46111</v>
+        <v>46112</v>
       </c>
       <c r="B219" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C219" s="8" t="inlineStr">
@@ -6835,11 +6835,11 @@
     </row>
     <row r="220">
       <c r="A220" s="12" t="n">
-        <v>46112</v>
+        <v>46113</v>
       </c>
       <c r="B220" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C220" s="8" t="inlineStr">
@@ -6858,11 +6858,11 @@
     </row>
     <row r="221">
       <c r="A221" s="12" t="n">
-        <v>46113</v>
+        <v>46114</v>
       </c>
       <c r="B221" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C221" s="8" t="inlineStr">
@@ -6881,11 +6881,11 @@
     </row>
     <row r="222">
       <c r="A222" s="12" t="n">
-        <v>46114</v>
+        <v>46115</v>
       </c>
       <c r="B222" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C222" s="8" t="inlineStr">
@@ -6904,16 +6904,16 @@
     </row>
     <row r="223">
       <c r="A223" s="12" t="n">
-        <v>46115</v>
+        <v>46116</v>
       </c>
       <c r="B223" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C223" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D223" s="8" t="n"/>
@@ -6927,11 +6927,11 @@
     </row>
     <row r="224">
       <c r="A224" s="12" t="n">
-        <v>46116</v>
+        <v>46117</v>
       </c>
       <c r="B224" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C224" s="8" t="inlineStr">
@@ -6950,16 +6950,16 @@
     </row>
     <row r="225">
       <c r="A225" s="12" t="n">
-        <v>46117</v>
+        <v>46118</v>
       </c>
       <c r="B225" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C225" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D225" s="8" t="n"/>
@@ -6973,11 +6973,11 @@
     </row>
     <row r="226">
       <c r="A226" s="12" t="n">
-        <v>46118</v>
+        <v>46119</v>
       </c>
       <c r="B226" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C226" s="8" t="inlineStr">
@@ -6996,11 +6996,11 @@
     </row>
     <row r="227">
       <c r="A227" s="12" t="n">
-        <v>46119</v>
+        <v>46120</v>
       </c>
       <c r="B227" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C227" s="8" t="inlineStr">
@@ -7019,11 +7019,11 @@
     </row>
     <row r="228">
       <c r="A228" s="12" t="n">
-        <v>46120</v>
+        <v>46121</v>
       </c>
       <c r="B228" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C228" s="8" t="inlineStr">
@@ -7042,11 +7042,11 @@
     </row>
     <row r="229">
       <c r="A229" s="12" t="n">
-        <v>46121</v>
+        <v>46122</v>
       </c>
       <c r="B229" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C229" s="8" t="inlineStr">
@@ -7065,16 +7065,16 @@
     </row>
     <row r="230">
       <c r="A230" s="12" t="n">
-        <v>46122</v>
+        <v>46123</v>
       </c>
       <c r="B230" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C230" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D230" s="8" t="n"/>
@@ -7088,11 +7088,11 @@
     </row>
     <row r="231">
       <c r="A231" s="12" t="n">
-        <v>46123</v>
+        <v>46124</v>
       </c>
       <c r="B231" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C231" s="8" t="inlineStr">
@@ -7111,16 +7111,16 @@
     </row>
     <row r="232">
       <c r="A232" s="12" t="n">
-        <v>46124</v>
+        <v>46125</v>
       </c>
       <c r="B232" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C232" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D232" s="8" t="n"/>
@@ -7134,11 +7134,11 @@
     </row>
     <row r="233">
       <c r="A233" s="12" t="n">
-        <v>46125</v>
+        <v>46126</v>
       </c>
       <c r="B233" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C233" s="8" t="inlineStr">
@@ -7157,11 +7157,11 @@
     </row>
     <row r="234">
       <c r="A234" s="12" t="n">
-        <v>46126</v>
+        <v>46127</v>
       </c>
       <c r="B234" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C234" s="8" t="inlineStr">
@@ -7180,11 +7180,11 @@
     </row>
     <row r="235">
       <c r="A235" s="12" t="n">
-        <v>46127</v>
+        <v>46128</v>
       </c>
       <c r="B235" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C235" s="8" t="inlineStr">
@@ -7203,11 +7203,11 @@
     </row>
     <row r="236">
       <c r="A236" s="12" t="n">
-        <v>46128</v>
+        <v>46129</v>
       </c>
       <c r="B236" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C236" s="8" t="inlineStr">
@@ -7226,16 +7226,16 @@
     </row>
     <row r="237">
       <c r="A237" s="12" t="n">
-        <v>46129</v>
+        <v>46130</v>
       </c>
       <c r="B237" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C237" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D237" s="8" t="n"/>
@@ -7249,11 +7249,11 @@
     </row>
     <row r="238">
       <c r="A238" s="12" t="n">
-        <v>46130</v>
+        <v>46131</v>
       </c>
       <c r="B238" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C238" s="8" t="inlineStr">
@@ -7272,16 +7272,16 @@
     </row>
     <row r="239">
       <c r="A239" s="12" t="n">
-        <v>46131</v>
+        <v>46132</v>
       </c>
       <c r="B239" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C239" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D239" s="8" t="n"/>
@@ -7295,11 +7295,11 @@
     </row>
     <row r="240">
       <c r="A240" s="12" t="n">
-        <v>46132</v>
+        <v>46133</v>
       </c>
       <c r="B240" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C240" s="8" t="inlineStr">
@@ -7318,11 +7318,11 @@
     </row>
     <row r="241">
       <c r="A241" s="12" t="n">
-        <v>46133</v>
+        <v>46134</v>
       </c>
       <c r="B241" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C241" s="8" t="inlineStr">
@@ -7341,11 +7341,11 @@
     </row>
     <row r="242">
       <c r="A242" s="12" t="n">
-        <v>46134</v>
+        <v>46135</v>
       </c>
       <c r="B242" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C242" s="8" t="inlineStr">
@@ -7364,11 +7364,11 @@
     </row>
     <row r="243">
       <c r="A243" s="12" t="n">
-        <v>46135</v>
+        <v>46136</v>
       </c>
       <c r="B243" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C243" s="8" t="inlineStr">
@@ -7387,16 +7387,16 @@
     </row>
     <row r="244">
       <c r="A244" s="12" t="n">
-        <v>46136</v>
+        <v>46137</v>
       </c>
       <c r="B244" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C244" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D244" s="8" t="n"/>
@@ -7410,11 +7410,11 @@
     </row>
     <row r="245">
       <c r="A245" s="12" t="n">
-        <v>46137</v>
+        <v>46138</v>
       </c>
       <c r="B245" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C245" s="8" t="inlineStr">
@@ -7433,16 +7433,16 @@
     </row>
     <row r="246">
       <c r="A246" s="12" t="n">
-        <v>46138</v>
+        <v>46139</v>
       </c>
       <c r="B246" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C246" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D246" s="8" t="n"/>
@@ -7456,11 +7456,11 @@
     </row>
     <row r="247">
       <c r="A247" s="12" t="n">
-        <v>46139</v>
+        <v>46140</v>
       </c>
       <c r="B247" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C247" s="8" t="inlineStr">
@@ -7479,11 +7479,11 @@
     </row>
     <row r="248">
       <c r="A248" s="12" t="n">
-        <v>46140</v>
+        <v>46141</v>
       </c>
       <c r="B248" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C248" s="8" t="inlineStr">
@@ -7502,11 +7502,11 @@
     </row>
     <row r="249">
       <c r="A249" s="12" t="n">
-        <v>46141</v>
+        <v>46142</v>
       </c>
       <c r="B249" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C249" s="8" t="inlineStr">
@@ -7525,11 +7525,11 @@
     </row>
     <row r="250">
       <c r="A250" s="12" t="n">
-        <v>46142</v>
+        <v>46143</v>
       </c>
       <c r="B250" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C250" s="8" t="inlineStr">
@@ -7548,16 +7548,16 @@
     </row>
     <row r="251">
       <c r="A251" s="12" t="n">
-        <v>46143</v>
+        <v>46144</v>
       </c>
       <c r="B251" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C251" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D251" s="8" t="n"/>
@@ -7571,11 +7571,11 @@
     </row>
     <row r="252">
       <c r="A252" s="12" t="n">
-        <v>46144</v>
+        <v>46145</v>
       </c>
       <c r="B252" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C252" s="8" t="inlineStr">
@@ -7594,16 +7594,16 @@
     </row>
     <row r="253">
       <c r="A253" s="12" t="n">
-        <v>46145</v>
+        <v>46146</v>
       </c>
       <c r="B253" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C253" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D253" s="8" t="n"/>
@@ -7617,11 +7617,11 @@
     </row>
     <row r="254">
       <c r="A254" s="12" t="n">
-        <v>46146</v>
+        <v>46147</v>
       </c>
       <c r="B254" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C254" s="8" t="inlineStr">
@@ -7640,11 +7640,11 @@
     </row>
     <row r="255">
       <c r="A255" s="12" t="n">
-        <v>46147</v>
+        <v>46148</v>
       </c>
       <c r="B255" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C255" s="8" t="inlineStr">
@@ -7663,11 +7663,11 @@
     </row>
     <row r="256">
       <c r="A256" s="12" t="n">
-        <v>46148</v>
+        <v>46149</v>
       </c>
       <c r="B256" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C256" s="8" t="inlineStr">
@@ -7686,11 +7686,11 @@
     </row>
     <row r="257">
       <c r="A257" s="12" t="n">
-        <v>46149</v>
+        <v>46150</v>
       </c>
       <c r="B257" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C257" s="8" t="inlineStr">
@@ -7709,16 +7709,16 @@
     </row>
     <row r="258">
       <c r="A258" s="12" t="n">
-        <v>46150</v>
+        <v>46151</v>
       </c>
       <c r="B258" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C258" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D258" s="8" t="n"/>
@@ -7732,11 +7732,11 @@
     </row>
     <row r="259">
       <c r="A259" s="12" t="n">
-        <v>46151</v>
+        <v>46152</v>
       </c>
       <c r="B259" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C259" s="8" t="inlineStr">
@@ -7755,16 +7755,16 @@
     </row>
     <row r="260">
       <c r="A260" s="12" t="n">
-        <v>46152</v>
+        <v>46153</v>
       </c>
       <c r="B260" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C260" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D260" s="8" t="n"/>
@@ -7778,11 +7778,11 @@
     </row>
     <row r="261">
       <c r="A261" s="12" t="n">
-        <v>46153</v>
+        <v>46154</v>
       </c>
       <c r="B261" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C261" s="8" t="inlineStr">
@@ -7801,11 +7801,11 @@
     </row>
     <row r="262">
       <c r="A262" s="12" t="n">
-        <v>46154</v>
+        <v>46155</v>
       </c>
       <c r="B262" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C262" s="8" t="inlineStr">
@@ -7824,11 +7824,11 @@
     </row>
     <row r="263">
       <c r="A263" s="12" t="n">
-        <v>46155</v>
+        <v>46156</v>
       </c>
       <c r="B263" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C263" s="8" t="inlineStr">
@@ -7847,11 +7847,11 @@
     </row>
     <row r="264">
       <c r="A264" s="12" t="n">
-        <v>46156</v>
+        <v>46157</v>
       </c>
       <c r="B264" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C264" s="8" t="inlineStr">
@@ -7870,16 +7870,16 @@
     </row>
     <row r="265">
       <c r="A265" s="12" t="n">
-        <v>46157</v>
+        <v>46158</v>
       </c>
       <c r="B265" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C265" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D265" s="8" t="n"/>
@@ -7893,11 +7893,11 @@
     </row>
     <row r="266">
       <c r="A266" s="12" t="n">
-        <v>46158</v>
+        <v>46159</v>
       </c>
       <c r="B266" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C266" s="8" t="inlineStr">
@@ -7916,16 +7916,16 @@
     </row>
     <row r="267">
       <c r="A267" s="12" t="n">
-        <v>46159</v>
+        <v>46160</v>
       </c>
       <c r="B267" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C267" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D267" s="8" t="n"/>
@@ -7939,11 +7939,11 @@
     </row>
     <row r="268">
       <c r="A268" s="12" t="n">
-        <v>46160</v>
+        <v>46161</v>
       </c>
       <c r="B268" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C268" s="8" t="inlineStr">
@@ -7962,11 +7962,11 @@
     </row>
     <row r="269">
       <c r="A269" s="12" t="n">
-        <v>46161</v>
+        <v>46162</v>
       </c>
       <c r="B269" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C269" s="8" t="inlineStr">
@@ -7985,11 +7985,11 @@
     </row>
     <row r="270">
       <c r="A270" s="12" t="n">
-        <v>46162</v>
+        <v>46163</v>
       </c>
       <c r="B270" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C270" s="8" t="inlineStr">
@@ -8008,11 +8008,11 @@
     </row>
     <row r="271">
       <c r="A271" s="12" t="n">
-        <v>46163</v>
+        <v>46164</v>
       </c>
       <c r="B271" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C271" s="8" t="inlineStr">
@@ -8031,16 +8031,16 @@
     </row>
     <row r="272">
       <c r="A272" s="12" t="n">
-        <v>46164</v>
+        <v>46165</v>
       </c>
       <c r="B272" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C272" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D272" s="8" t="n"/>
@@ -8054,11 +8054,11 @@
     </row>
     <row r="273">
       <c r="A273" s="12" t="n">
-        <v>46165</v>
+        <v>46166</v>
       </c>
       <c r="B273" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C273" s="8" t="inlineStr">
@@ -8077,16 +8077,16 @@
     </row>
     <row r="274">
       <c r="A274" s="12" t="n">
-        <v>46166</v>
+        <v>46167</v>
       </c>
       <c r="B274" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C274" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D274" s="8" t="n"/>
@@ -8100,11 +8100,11 @@
     </row>
     <row r="275">
       <c r="A275" s="12" t="n">
-        <v>46167</v>
+        <v>46168</v>
       </c>
       <c r="B275" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C275" s="8" t="inlineStr">
@@ -8123,11 +8123,11 @@
     </row>
     <row r="276">
       <c r="A276" s="12" t="n">
-        <v>46168</v>
+        <v>46169</v>
       </c>
       <c r="B276" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C276" s="8" t="inlineStr">
@@ -8146,11 +8146,11 @@
     </row>
     <row r="277">
       <c r="A277" s="12" t="n">
-        <v>46169</v>
+        <v>46170</v>
       </c>
       <c r="B277" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C277" s="8" t="inlineStr">
@@ -8169,11 +8169,11 @@
     </row>
     <row r="278">
       <c r="A278" s="12" t="n">
-        <v>46170</v>
+        <v>46171</v>
       </c>
       <c r="B278" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C278" s="8" t="inlineStr">
@@ -8192,16 +8192,16 @@
     </row>
     <row r="279">
       <c r="A279" s="12" t="n">
-        <v>46171</v>
+        <v>46172</v>
       </c>
       <c r="B279" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C279" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D279" s="8" t="n"/>
@@ -8215,11 +8215,11 @@
     </row>
     <row r="280">
       <c r="A280" s="12" t="n">
-        <v>46172</v>
+        <v>46173</v>
       </c>
       <c r="B280" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C280" s="8" t="inlineStr">
@@ -8238,16 +8238,16 @@
     </row>
     <row r="281">
       <c r="A281" s="12" t="n">
-        <v>46173</v>
+        <v>46174</v>
       </c>
       <c r="B281" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C281" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D281" s="8" t="n"/>
@@ -8261,11 +8261,11 @@
     </row>
     <row r="282">
       <c r="A282" s="12" t="n">
-        <v>46174</v>
+        <v>46175</v>
       </c>
       <c r="B282" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C282" s="8" t="inlineStr">
@@ -8284,11 +8284,11 @@
     </row>
     <row r="283">
       <c r="A283" s="12" t="n">
-        <v>46175</v>
+        <v>46176</v>
       </c>
       <c r="B283" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C283" s="8" t="inlineStr">
@@ -8307,11 +8307,11 @@
     </row>
     <row r="284">
       <c r="A284" s="12" t="n">
-        <v>46176</v>
+        <v>46177</v>
       </c>
       <c r="B284" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C284" s="8" t="inlineStr">
@@ -8330,11 +8330,11 @@
     </row>
     <row r="285">
       <c r="A285" s="12" t="n">
-        <v>46177</v>
+        <v>46178</v>
       </c>
       <c r="B285" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C285" s="8" t="inlineStr">
@@ -8353,16 +8353,16 @@
     </row>
     <row r="286">
       <c r="A286" s="12" t="n">
-        <v>46178</v>
+        <v>46179</v>
       </c>
       <c r="B286" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C286" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D286" s="8" t="n"/>
@@ -8376,11 +8376,11 @@
     </row>
     <row r="287">
       <c r="A287" s="12" t="n">
-        <v>46179</v>
+        <v>46180</v>
       </c>
       <c r="B287" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C287" s="8" t="inlineStr">
@@ -8399,16 +8399,16 @@
     </row>
     <row r="288">
       <c r="A288" s="12" t="n">
-        <v>46180</v>
+        <v>46181</v>
       </c>
       <c r="B288" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C288" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D288" s="8" t="n"/>
@@ -8422,11 +8422,11 @@
     </row>
     <row r="289">
       <c r="A289" s="12" t="n">
-        <v>46181</v>
+        <v>46182</v>
       </c>
       <c r="B289" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C289" s="8" t="inlineStr">
@@ -8445,11 +8445,11 @@
     </row>
     <row r="290">
       <c r="A290" s="12" t="n">
-        <v>46182</v>
+        <v>46183</v>
       </c>
       <c r="B290" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C290" s="8" t="inlineStr">
@@ -8468,11 +8468,11 @@
     </row>
     <row r="291">
       <c r="A291" s="12" t="n">
-        <v>46183</v>
+        <v>46184</v>
       </c>
       <c r="B291" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C291" s="8" t="inlineStr">
@@ -8491,11 +8491,11 @@
     </row>
     <row r="292">
       <c r="A292" s="12" t="n">
-        <v>46184</v>
+        <v>46185</v>
       </c>
       <c r="B292" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C292" s="8" t="inlineStr">
@@ -8514,16 +8514,16 @@
     </row>
     <row r="293">
       <c r="A293" s="12" t="n">
-        <v>46185</v>
+        <v>46186</v>
       </c>
       <c r="B293" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C293" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D293" s="8" t="n"/>
@@ -8537,11 +8537,11 @@
     </row>
     <row r="294">
       <c r="A294" s="12" t="n">
-        <v>46186</v>
+        <v>46187</v>
       </c>
       <c r="B294" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C294" s="8" t="inlineStr">
@@ -8560,16 +8560,16 @@
     </row>
     <row r="295">
       <c r="A295" s="12" t="n">
-        <v>46187</v>
+        <v>46188</v>
       </c>
       <c r="B295" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C295" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D295" s="8" t="n"/>
@@ -8583,11 +8583,11 @@
     </row>
     <row r="296">
       <c r="A296" s="12" t="n">
-        <v>46188</v>
+        <v>46189</v>
       </c>
       <c r="B296" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C296" s="8" t="inlineStr">
@@ -8606,11 +8606,11 @@
     </row>
     <row r="297">
       <c r="A297" s="12" t="n">
-        <v>46189</v>
+        <v>46190</v>
       </c>
       <c r="B297" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C297" s="8" t="inlineStr">
@@ -8629,11 +8629,11 @@
     </row>
     <row r="298">
       <c r="A298" s="12" t="n">
-        <v>46190</v>
+        <v>46191</v>
       </c>
       <c r="B298" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C298" s="8" t="inlineStr">
@@ -8652,11 +8652,11 @@
     </row>
     <row r="299">
       <c r="A299" s="12" t="n">
-        <v>46191</v>
+        <v>46192</v>
       </c>
       <c r="B299" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C299" s="8" t="inlineStr">
@@ -8675,16 +8675,16 @@
     </row>
     <row r="300">
       <c r="A300" s="12" t="n">
-        <v>46192</v>
+        <v>46193</v>
       </c>
       <c r="B300" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C300" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D300" s="8" t="n"/>
@@ -8698,11 +8698,11 @@
     </row>
     <row r="301">
       <c r="A301" s="12" t="n">
-        <v>46193</v>
+        <v>46194</v>
       </c>
       <c r="B301" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C301" s="8" t="inlineStr">
@@ -8721,16 +8721,16 @@
     </row>
     <row r="302">
       <c r="A302" s="12" t="n">
-        <v>46194</v>
+        <v>46195</v>
       </c>
       <c r="B302" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C302" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D302" s="8" t="n"/>
@@ -8744,11 +8744,11 @@
     </row>
     <row r="303">
       <c r="A303" s="12" t="n">
-        <v>46195</v>
+        <v>46196</v>
       </c>
       <c r="B303" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C303" s="8" t="inlineStr">
@@ -8767,11 +8767,11 @@
     </row>
     <row r="304">
       <c r="A304" s="12" t="n">
-        <v>46196</v>
+        <v>46197</v>
       </c>
       <c r="B304" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C304" s="8" t="inlineStr">
@@ -8790,11 +8790,11 @@
     </row>
     <row r="305">
       <c r="A305" s="12" t="n">
-        <v>46197</v>
+        <v>46198</v>
       </c>
       <c r="B305" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C305" s="8" t="inlineStr">
@@ -8813,11 +8813,11 @@
     </row>
     <row r="306">
       <c r="A306" s="12" t="n">
-        <v>46198</v>
+        <v>46199</v>
       </c>
       <c r="B306" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C306" s="8" t="inlineStr">
@@ -8836,16 +8836,16 @@
     </row>
     <row r="307">
       <c r="A307" s="12" t="n">
-        <v>46199</v>
+        <v>46200</v>
       </c>
       <c r="B307" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C307" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D307" s="8" t="n"/>
@@ -8859,11 +8859,11 @@
     </row>
     <row r="308">
       <c r="A308" s="12" t="n">
-        <v>46200</v>
+        <v>46201</v>
       </c>
       <c r="B308" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C308" s="8" t="inlineStr">
@@ -8882,16 +8882,16 @@
     </row>
     <row r="309">
       <c r="A309" s="12" t="n">
-        <v>46201</v>
+        <v>46202</v>
       </c>
       <c r="B309" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C309" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D309" s="8" t="n"/>
@@ -8905,11 +8905,11 @@
     </row>
     <row r="310">
       <c r="A310" s="12" t="n">
-        <v>46202</v>
+        <v>46203</v>
       </c>
       <c r="B310" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C310" s="8" t="inlineStr">
@@ -8928,11 +8928,11 @@
     </row>
     <row r="311">
       <c r="A311" s="12" t="n">
-        <v>46203</v>
+        <v>46204</v>
       </c>
       <c r="B311" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C311" s="8" t="inlineStr">
@@ -8951,11 +8951,11 @@
     </row>
     <row r="312">
       <c r="A312" s="12" t="n">
-        <v>46204</v>
+        <v>46205</v>
       </c>
       <c r="B312" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C312" s="8" t="inlineStr">
@@ -8974,11 +8974,11 @@
     </row>
     <row r="313">
       <c r="A313" s="12" t="n">
-        <v>46205</v>
+        <v>46206</v>
       </c>
       <c r="B313" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C313" s="8" t="inlineStr">
@@ -8997,16 +8997,16 @@
     </row>
     <row r="314">
       <c r="A314" s="12" t="n">
-        <v>46206</v>
+        <v>46207</v>
       </c>
       <c r="B314" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C314" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D314" s="8" t="n"/>
@@ -9020,11 +9020,11 @@
     </row>
     <row r="315">
       <c r="A315" s="12" t="n">
-        <v>46207</v>
+        <v>46208</v>
       </c>
       <c r="B315" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C315" s="8" t="inlineStr">
@@ -9043,16 +9043,16 @@
     </row>
     <row r="316">
       <c r="A316" s="12" t="n">
-        <v>46208</v>
+        <v>46209</v>
       </c>
       <c r="B316" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C316" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D316" s="8" t="n"/>
@@ -9066,11 +9066,11 @@
     </row>
     <row r="317">
       <c r="A317" s="12" t="n">
-        <v>46209</v>
+        <v>46210</v>
       </c>
       <c r="B317" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C317" s="8" t="inlineStr">
@@ -9089,11 +9089,11 @@
     </row>
     <row r="318">
       <c r="A318" s="12" t="n">
-        <v>46210</v>
+        <v>46211</v>
       </c>
       <c r="B318" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C318" s="8" t="inlineStr">
@@ -9112,11 +9112,11 @@
     </row>
     <row r="319">
       <c r="A319" s="12" t="n">
-        <v>46211</v>
+        <v>46212</v>
       </c>
       <c r="B319" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C319" s="8" t="inlineStr">
@@ -9135,11 +9135,11 @@
     </row>
     <row r="320">
       <c r="A320" s="12" t="n">
-        <v>46212</v>
+        <v>46213</v>
       </c>
       <c r="B320" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C320" s="8" t="inlineStr">
@@ -9158,16 +9158,16 @@
     </row>
     <row r="321">
       <c r="A321" s="12" t="n">
-        <v>46213</v>
+        <v>46214</v>
       </c>
       <c r="B321" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C321" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D321" s="8" t="n"/>
@@ -9181,11 +9181,11 @@
     </row>
     <row r="322">
       <c r="A322" s="12" t="n">
-        <v>46214</v>
+        <v>46215</v>
       </c>
       <c r="B322" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C322" s="8" t="inlineStr">
@@ -9204,16 +9204,16 @@
     </row>
     <row r="323">
       <c r="A323" s="12" t="n">
-        <v>46215</v>
+        <v>46216</v>
       </c>
       <c r="B323" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C323" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D323" s="8" t="n"/>
@@ -9227,11 +9227,11 @@
     </row>
     <row r="324">
       <c r="A324" s="12" t="n">
-        <v>46216</v>
+        <v>46217</v>
       </c>
       <c r="B324" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C324" s="8" t="inlineStr">
@@ -9250,11 +9250,11 @@
     </row>
     <row r="325">
       <c r="A325" s="12" t="n">
-        <v>46217</v>
+        <v>46218</v>
       </c>
       <c r="B325" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C325" s="8" t="inlineStr">
@@ -9273,11 +9273,11 @@
     </row>
     <row r="326">
       <c r="A326" s="12" t="n">
-        <v>46218</v>
+        <v>46219</v>
       </c>
       <c r="B326" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C326" s="8" t="inlineStr">
@@ -9296,11 +9296,11 @@
     </row>
     <row r="327">
       <c r="A327" s="12" t="n">
-        <v>46219</v>
+        <v>46220</v>
       </c>
       <c r="B327" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C327" s="8" t="inlineStr">
@@ -9319,16 +9319,16 @@
     </row>
     <row r="328">
       <c r="A328" s="12" t="n">
-        <v>46220</v>
+        <v>46221</v>
       </c>
       <c r="B328" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C328" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D328" s="8" t="n"/>
@@ -9342,11 +9342,11 @@
     </row>
     <row r="329">
       <c r="A329" s="12" t="n">
-        <v>46221</v>
+        <v>46222</v>
       </c>
       <c r="B329" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C329" s="8" t="inlineStr">
@@ -9365,16 +9365,16 @@
     </row>
     <row r="330">
       <c r="A330" s="12" t="n">
-        <v>46222</v>
+        <v>46223</v>
       </c>
       <c r="B330" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C330" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D330" s="8" t="n"/>
@@ -9388,11 +9388,11 @@
     </row>
     <row r="331">
       <c r="A331" s="12" t="n">
-        <v>46223</v>
+        <v>46224</v>
       </c>
       <c r="B331" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C331" s="8" t="inlineStr">
@@ -9411,11 +9411,11 @@
     </row>
     <row r="332">
       <c r="A332" s="12" t="n">
-        <v>46224</v>
+        <v>46225</v>
       </c>
       <c r="B332" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C332" s="8" t="inlineStr">
@@ -9434,11 +9434,11 @@
     </row>
     <row r="333">
       <c r="A333" s="12" t="n">
-        <v>46225</v>
+        <v>46226</v>
       </c>
       <c r="B333" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C333" s="8" t="inlineStr">
@@ -9457,11 +9457,11 @@
     </row>
     <row r="334">
       <c r="A334" s="12" t="n">
-        <v>46226</v>
+        <v>46227</v>
       </c>
       <c r="B334" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C334" s="8" t="inlineStr">
@@ -9480,16 +9480,16 @@
     </row>
     <row r="335">
       <c r="A335" s="12" t="n">
-        <v>46227</v>
+        <v>46228</v>
       </c>
       <c r="B335" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C335" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D335" s="8" t="n"/>
@@ -9503,11 +9503,11 @@
     </row>
     <row r="336">
       <c r="A336" s="12" t="n">
-        <v>46228</v>
+        <v>46229</v>
       </c>
       <c r="B336" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C336" s="8" t="inlineStr">
@@ -9526,16 +9526,16 @@
     </row>
     <row r="337">
       <c r="A337" s="12" t="n">
-        <v>46229</v>
+        <v>46230</v>
       </c>
       <c r="B337" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C337" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D337" s="8" t="n"/>
@@ -9549,11 +9549,11 @@
     </row>
     <row r="338">
       <c r="A338" s="12" t="n">
-        <v>46230</v>
+        <v>46231</v>
       </c>
       <c r="B338" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C338" s="8" t="inlineStr">
@@ -9572,11 +9572,11 @@
     </row>
     <row r="339">
       <c r="A339" s="12" t="n">
-        <v>46231</v>
+        <v>46232</v>
       </c>
       <c r="B339" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C339" s="8" t="inlineStr">
@@ -9595,11 +9595,11 @@
     </row>
     <row r="340">
       <c r="A340" s="12" t="n">
-        <v>46232</v>
+        <v>46233</v>
       </c>
       <c r="B340" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C340" s="8" t="inlineStr">
@@ -9618,11 +9618,11 @@
     </row>
     <row r="341">
       <c r="A341" s="12" t="n">
-        <v>46233</v>
+        <v>46234</v>
       </c>
       <c r="B341" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C341" s="8" t="inlineStr">
@@ -9641,16 +9641,16 @@
     </row>
     <row r="342">
       <c r="A342" s="12" t="n">
-        <v>46234</v>
+        <v>46235</v>
       </c>
       <c r="B342" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C342" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D342" s="8" t="n"/>
@@ -9664,11 +9664,11 @@
     </row>
     <row r="343">
       <c r="A343" s="12" t="n">
-        <v>46235</v>
+        <v>46236</v>
       </c>
       <c r="B343" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C343" s="8" t="inlineStr">
@@ -9687,16 +9687,16 @@
     </row>
     <row r="344">
       <c r="A344" s="12" t="n">
-        <v>46236</v>
+        <v>46237</v>
       </c>
       <c r="B344" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C344" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D344" s="8" t="n"/>
@@ -9710,11 +9710,11 @@
     </row>
     <row r="345">
       <c r="A345" s="12" t="n">
-        <v>46237</v>
+        <v>46238</v>
       </c>
       <c r="B345" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C345" s="8" t="inlineStr">
@@ -9733,11 +9733,11 @@
     </row>
     <row r="346">
       <c r="A346" s="12" t="n">
-        <v>46238</v>
+        <v>46239</v>
       </c>
       <c r="B346" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C346" s="8" t="inlineStr">
@@ -9756,11 +9756,11 @@
     </row>
     <row r="347">
       <c r="A347" s="12" t="n">
-        <v>46239</v>
+        <v>46240</v>
       </c>
       <c r="B347" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C347" s="8" t="inlineStr">
@@ -9779,11 +9779,11 @@
     </row>
     <row r="348">
       <c r="A348" s="12" t="n">
-        <v>46240</v>
+        <v>46241</v>
       </c>
       <c r="B348" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C348" s="8" t="inlineStr">
@@ -9802,16 +9802,16 @@
     </row>
     <row r="349">
       <c r="A349" s="12" t="n">
-        <v>46241</v>
+        <v>46242</v>
       </c>
       <c r="B349" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C349" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D349" s="8" t="n"/>
@@ -9825,11 +9825,11 @@
     </row>
     <row r="350">
       <c r="A350" s="12" t="n">
-        <v>46242</v>
+        <v>46243</v>
       </c>
       <c r="B350" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C350" s="8" t="inlineStr">
@@ -9848,16 +9848,16 @@
     </row>
     <row r="351">
       <c r="A351" s="12" t="n">
-        <v>46243</v>
+        <v>46244</v>
       </c>
       <c r="B351" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C351" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D351" s="8" t="n"/>
@@ -9871,11 +9871,11 @@
     </row>
     <row r="352">
       <c r="A352" s="12" t="n">
-        <v>46244</v>
+        <v>46245</v>
       </c>
       <c r="B352" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C352" s="8" t="inlineStr">
@@ -9894,11 +9894,11 @@
     </row>
     <row r="353">
       <c r="A353" s="12" t="n">
-        <v>46245</v>
+        <v>46246</v>
       </c>
       <c r="B353" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C353" s="8" t="inlineStr">
@@ -9917,11 +9917,11 @@
     </row>
     <row r="354">
       <c r="A354" s="12" t="n">
-        <v>46246</v>
+        <v>46247</v>
       </c>
       <c r="B354" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C354" s="8" t="inlineStr">
@@ -9940,11 +9940,11 @@
     </row>
     <row r="355">
       <c r="A355" s="12" t="n">
-        <v>46247</v>
+        <v>46248</v>
       </c>
       <c r="B355" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C355" s="8" t="inlineStr">
@@ -9963,16 +9963,16 @@
     </row>
     <row r="356">
       <c r="A356" s="12" t="n">
-        <v>46248</v>
+        <v>46249</v>
       </c>
       <c r="B356" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C356" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D356" s="8" t="n"/>
@@ -9986,11 +9986,11 @@
     </row>
     <row r="357">
       <c r="A357" s="12" t="n">
-        <v>46249</v>
+        <v>46250</v>
       </c>
       <c r="B357" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C357" s="8" t="inlineStr">
@@ -10009,16 +10009,16 @@
     </row>
     <row r="358">
       <c r="A358" s="12" t="n">
-        <v>46250</v>
+        <v>46251</v>
       </c>
       <c r="B358" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C358" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D358" s="8" t="n"/>
@@ -10032,11 +10032,11 @@
     </row>
     <row r="359">
       <c r="A359" s="12" t="n">
-        <v>46251</v>
+        <v>46252</v>
       </c>
       <c r="B359" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C359" s="8" t="inlineStr">
@@ -10055,11 +10055,11 @@
     </row>
     <row r="360">
       <c r="A360" s="12" t="n">
-        <v>46252</v>
+        <v>46253</v>
       </c>
       <c r="B360" s="8" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C360" s="8" t="inlineStr">
@@ -10078,11 +10078,11 @@
     </row>
     <row r="361">
       <c r="A361" s="12" t="n">
-        <v>46253</v>
+        <v>46254</v>
       </c>
       <c r="B361" s="8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C361" s="8" t="inlineStr">
@@ -10101,11 +10101,11 @@
     </row>
     <row r="362">
       <c r="A362" s="12" t="n">
-        <v>46254</v>
+        <v>46255</v>
       </c>
       <c r="B362" s="8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C362" s="8" t="inlineStr">
@@ -10124,16 +10124,16 @@
     </row>
     <row r="363">
       <c r="A363" s="12" t="n">
-        <v>46255</v>
+        <v>46256</v>
       </c>
       <c r="B363" s="8" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C363" s="8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="D363" s="8" t="n"/>
@@ -10147,11 +10147,11 @@
     </row>
     <row r="364">
       <c r="A364" s="12" t="n">
-        <v>46256</v>
+        <v>46257</v>
       </c>
       <c r="B364" s="8" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="C364" s="8" t="inlineStr">
@@ -10170,16 +10170,16 @@
     </row>
     <row r="365">
       <c r="A365" s="12" t="n">
-        <v>46257</v>
+        <v>46258</v>
       </c>
       <c r="B365" s="8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C365" s="8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="D365" s="8" t="n"/>
@@ -10193,11 +10193,11 @@
     </row>
     <row r="366">
       <c r="A366" s="12" t="n">
-        <v>46258</v>
+        <v>46259</v>
       </c>
       <c r="B366" s="8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C366" s="8" t="inlineStr">
